--- a/Capstone_SWP490/Capstone_SWP490/App_Data/CONTEST_MEMBER_INFORMATION.xlsx
+++ b/Capstone_SWP490/Capstone_SWP490/App_Data/CONTEST_MEMBER_INFORMATION.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Personal\V5\Capstone_SWP490\Capstone_SWP490\Capstone_SWP490\App_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Capstone_SWP490\Capstone_SWP490\Capstone_SWP490\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD11DE45-47A5-4CDB-9C3D-7194F98F71DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OVERVIEW" sheetId="1" r:id="rId1"/>
     <sheet name="TEMP" sheetId="2" r:id="rId2"/>
     <sheet name="Cao Dang" sheetId="3" r:id="rId3"/>
-    <sheet name="TEST" sheetId="4" r:id="rId6"/>
+    <sheet name="TEST" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>Contest Name</t>
   </si>
@@ -56,7 +57,7 @@
     <t>ICPCID</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr  A</t>
+    <t>Mr  A</t>
   </si>
   <si>
     <t>aa@gmail.com</t>
@@ -89,9 +90,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,24 +231,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -531,7 +531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -546,7 +546,7 @@
     <col min="5" max="5" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
@@ -566,7 +566,7 @@
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
@@ -581,21 +581,20 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +603,7 @@
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -613,7 +612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -622,10 +621,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -642,8 +641,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -652,28 +651,27 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>222</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>123123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -685,44 +683,44 @@
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="C5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -731,32 +729,31 @@
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>222</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>123123</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +762,7 @@
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -774,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -783,10 +780,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -803,8 +800,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -813,22 +810,21 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>222</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>123123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>